--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/7VikwinBrokenGameURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/7VikwinBrokenGameURLList.xlsx
@@ -12,267 +12,1182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
-  <si>
-    <t>1 1 ID=23873 Provider=EGT Name=10 Burning Heart cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2 2 ID=23870 Provider=EGT Name=100 Burning Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3 3 ID=23874 Provider=EGT Name=100 Cats cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>4 13 ID=23913 Provider=EGT Name=40 Burning Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>5 171 ID=23086 Provider=NetEnt Name=Diamond Dogs cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>6 210 ID=23142 Provider=NetEnt Name=Evolution cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>7 211 ID=23070 Provider=NetEnt Name=Excalibur cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>8 229 ID=23145 Provider=NetEnt Name=Fisticuffs cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>9 234 ID=23007 Provider=EGT Name=Flaming Hot cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>10 236 ID=23097 Provider=NetEnt Name=Flowers cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>11 244 ID=23523 Provider=EGT Name=Fortune Spells cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>12 246 ID=23085 Provider=NetEnt Name=FortuneTeller cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>13 247 ID=23104 Provider=NetEnt Name=Frankenstein cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>14 249 ID=23161 Provider=NetEnt Name=French Roulette cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>15 250 ID=23120 Provider=NetEnt Name=Fruit Case cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>16 272 ID=23152 Provider=NetEnt Name=Funky Seventies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>17 282 ID=23093 Provider=NetEnt Name=Ghost Pirates cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>18 283 ID=23662 Provider=Microgaming Name=Girls with Guns cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>19 284 ID=23682 Provider=Microgaming Name=Girls with Guns: Frozen Dawn cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>20 286 ID=23156 Provider=NetEnt Name=Glow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>21 288 ID=23139 Provider=NetEnt Name=Go Bananas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>22 305 ID=23676 Provider=Microgaming Name=Gothic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>23 306 ID=23005 Provider=EGT Name=Grace of Cleopatra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>24 310 ID=23153 Provider=NetEnt Name=Groovy Sixties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>25 324 ID=23677 Provider=Microgaming Name=Hell`s Grannies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>26 330 ID=23401 Provider=NetEnt Name=Hit 2 Split cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>27 339 ID=23084 Provider=NetEnt Name=Hot City cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>28 379 ID=23162 Provider=NetEnt Name=Jacks or Better cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>29 382 ID=23654 Provider=Microgaming Name=Jekyll&amp;Hyde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>30 392 ID=23116 Provider=NetEnt Name=Jungle Games cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>31 408 ID=23402 Provider=NetEnt Name=King of Slots cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>32 414 ID=23678 Provider=Microgaming Name=Land of Lemuria cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>33 425 ID=23125 Provider=NetEnt Name=Lost Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>34 427 ID=23951 Provider=Konami Name=Lotus Land cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>35 473 ID=23004 Provider=EGT Name=Majestic Forest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>36 477 ID=23155 Provider=NetEnt Name=Master of Mystery cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>37 501 ID=23693 Provider=Microgaming Name=Mount Olympus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>38 505 ID=23112 Provider=NetEnt Name=Muse cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>39 506 ID=23073 Provider=NetEnt Name=Mystery at the Mansion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>40 516 ID=23685 Provider=Microgaming Name=Ninja Magic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>41 519 ID=23158 Provider=NetEnt Name=Nrvna cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>42 524 ID=23666 Provider=Microgaming Name=Old King Cole cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>43 526 ID=23003 Provider=EGT Name=Olympus Glory cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>44 527 ID=23680 Provider=Microgaming Name=One of Egypt cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>45 529 ID=23659 Provider=Microgaming Name=Orion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>46 530 ID=23072 Provider=NetEnt Name=Pacific Attack! cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>47 532 ID=23069 Provider=NetEnt Name=Pandora's Box cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>48 562 ID=23690 Provider=Microgaming Name=Rabbit in the Hat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>49 576 ID=23090 Provider=NetEnt Name=Reel Steal cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>50 585 ID=23002 Provider=EGT Name=Rise of Ra cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>51 589 ID=23110 Provider=NetEnt Name=Robin Hood cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>52 590 ID=23692 Provider=Microgaming Name=Robo Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>53 599 ID=23001 Provider=EGT Name=Royal Secrets cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>54 604 ID=23687 Provider=Microgaming Name=Savanna King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>55 606 ID=23114 Provider=NetEnt Name=Scarface cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>56 612 ID=23117 Provider=NetEnt Name=Secret Code cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>57 620 ID=23065 Provider=NetEnt Name=Secrets of Horus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>58 621 ID=23113 Provider=NetEnt Name=Secrets of Stones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>59 623 ID=23667 Provider=Microgaming Name=Serenity cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>60 633 ID=23148 Provider=NetEnt Name=Silent Run cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>61 636 ID=23118 Provider=NetEnt Name=Simsalabim cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>62 649 ID=23115 Provider=NetEnt Name=South Park cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>63 650 ID=23150 Provider=NetEnt Name=South Park Reel Chaos cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>64 653 ID=23147 Provider=NetEnt Name=Space Wars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>65 655 ID=23066 Provider=NetEnt Name=Spellcast cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>66 664 ID=23137 Provider=NetEnt Name=Steam Tower cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>67 670 ID=23102 Provider=NetEnt Name=Subtopia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>68 681 ID=23154 Provider=NetEnt Name=Super Eighties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>69 692 ID=23669 Provider=Microgaming Name=Taboo spell cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>70 694 ID=23083 Provider=NetEnt Name=Tales of Krakow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>71 698 ID=23689 Provider=Microgaming Name=Terminator 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>72 716 ID=23107 Provider=NetEnt Name=Thief cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>73 719 ID=23064 Provider=NetEnt Name=ThrillSpin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>74 722 ID=23129 Provider=NetEnt Name=Thunderfist cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>75 729 ID=23140 Provider=NetEnt Name=Tornado cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>76 733 ID=23068 Provider=NetEnt Name=Trolls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>77 739 ID=23679 Provider=Microgaming Name=Twisted Circus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>78 751 ID=23101 Provider=NetEnt Name=Victorious cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>79 753 ID=23063 Provider=NetEnt Name=Viking`s Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>80 758 ID=23071 Provider=NetEnt Name=Voodoo Vibes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>81 765 ID=23157 Provider=NetEnt Name=When Pigs Fly cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>82 781 ID=23149 Provider=NetEnt Name=Wild Rockets cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>83 784 ID=23095 Provider=NetEnt Name=Wild Turkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>84 789 ID=23067 Provider=NetEnt Name=Wild Witches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>85 793 ID=23134 Provider=NetEnt Name=Wish Master cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>86 799 ID=23121 Provider=NetEnt Name=Wonky Wabbits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>87 806 ID=23111 Provider=NetEnt Name=Zombies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+  <si>
+    <t>1 9 ID=75887 Provider=Zillion Name=15 Crystal Roses: A Tale of Love cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2 12 ID=28577 Provider=Zillion Name=24K Dragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3 14 ID=29550 Provider=Zillion Name=3 Clown Monty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4 20 ID=28441 Provider=Zillion Name=3 Hand Casino Hold'em cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5 35 ID=27081 Provider=Zillion Name=5x Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6 51 ID=27079 Provider=Zillion Name=7Sins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>7 81 ID=27068 Provider=Zillion Name=Ace of Spades cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>8 94 ID=29941 Provider=Zillion Name=Agent of Hearts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>9 96 ID=25304 Provider=Zillion Name=AgentDestiny cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>10 106 ID=75168 Provider=Zillion Name=Alice Cooper and the Tome of Madness cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>11 138 ID=76271 Provider=Zillion Name=Animal Madness cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>12 140 ID=26007 Provider=Zillion Name=AnkhofAnubis cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>13 142 ID=25640 Provider=Zillion Name=Annihilator cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>14 150 ID=25726 Provider=QuickSpin Name=Arcane Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>15 157 ID=27263 Provider=QuickSpin Name=Ark of Mystery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>16 158 ID=25718 Provider=QuickSpin Name=ArtemisvsMedusa cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>17 166 ID=77110 Provider=Zillion Name=Athena Ascending cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>18 187 ID=27075 Provider=Zillion Name=Aztec Idols cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>19 191 ID=27072 Provider=Zillion Name=Aztec Warrior Princess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>20 195 ID=76285 Provider=QuickSpin Name=Azticons Chaos Clusters cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>21 200 ID=27073 Provider=Zillion Name=Baker's Treat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>22 202 ID=27071 Provider=Zillion Name=Banana Rock cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>23 216 ID=27070 Provider=Zillion Name=Battle Royal cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>24 220 ID=75808 Provider=Zillion Name=Beasts Of Fire cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>25 221 ID=76616 Provider=QuickSpin Name=Beastwood cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>26 230 ID=27055 Provider=Zillion Name=Bell of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>27 236 ID=78409 Provider=QuickSpin Name=Betty Bonkers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>28 241 ID=28848 Provider=QuickSpin Name=Big Bad Wolf Christmas Special cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>29 242 ID=75100 Provider=QuickSpin Name=Big Bad Wolf Megaways cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>30 248 ID=27466 Provider=QuickSpin Name=Big Bot Crew cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>31 253 ID=26218 Provider=Zillion Name=Big Win 777 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>32 254 ID=27067 Provider=Zillion Name=Big Win Cat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>33 278 ID=28460 Provider=Zillion Name=BlackJack Multihand cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>34 279 ID=26078 Provider=Zillion Name=BlackMamba cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>35 280 ID=29746 Provider=Zillion Name=Blazin’ Bullfrog cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>36 282 ID=25144 Provider=Zillion Name=Blinged cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>37 284 ID=29596 Provider=QuickSpin Name=Blue Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>38 286 ID=76674 Provider=Zillion Name=Boat Bonanza cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>39 303 ID=27066 Provider=Zillion Name=Book of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>40 304 ID=75292 Provider=QuickSpin Name=Book of Duat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>41 311 ID=78476 Provider=QuickSpin Name=Book of Inferno cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>42 357 ID=76852 Provider=Zillion Name=Bugs Party cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>43 358 ID=29170 Provider=Zillion Name=Bull in a China Shop cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>44 359 ID=76581 Provider=Zillion Name=Bull in a Rodeo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>45 381 ID=29925 Provider=QuickSpin Name=Cabin Crashers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>46 389 ID=29609 Provider=Zillion Name=Candy Island Princess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>47 391 ID=77032 Provider=Zillion Name=Canine Carnage cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>48 393 ID=75815 Provider=Zillion Name=Captain Xeno's Earth Adventure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>49 406 ID=76569 Provider=Zillion Name=Cash of Command cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>50 410 ID=75904 Provider=QuickSpin Name=Cash Truck cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>51 411 ID=77177 Provider=QuickSpin Name=Cash Truck Xmas Delivery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>52 415 ID=77590 Provider=Zillion Name=Cash-a-Cabana cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>53 419 ID=26264 Provider=Zillion Name=CashPump cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>54 420 ID=26851 Provider=Zillion Name=CashVandal cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>55 422 ID=28459 Provider=Zillion Name=Casino Hold'em cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>56 429 ID=75926 Provider=Zillion Name=Cat Wilde and the Lost Chapter cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>57 430 ID=76355 Provider=Zillion Name=Cat Wilde and the Pyramids of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>58 431 ID=29297 Provider=Zillion Name=Cat Wilde in the Eclipse of the Sun God cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>59 432 ID=27065 Provider=Zillion Name=Cats and Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>60 434 ID=25210 Provider=Zillion Name=CatWildeandtheDoomofDead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>61 437 ID=76584 Provider=Zillion Name=Champions of Mithrune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>62 438 ID=29623 Provider=Zillion Name=Charlie Chance cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>63 439 ID=75146 Provider=Zillion Name=Charlie Chance and The Curse of Cleopatra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>64 440 ID=25276 Provider=Zillion Name=CharlieChanceinHelltoPay cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>65 449 ID=27064 Provider=Zillion Name=Chinese New Year cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>66 458 ID=26030 Provider=Zillion Name=Chronos Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>67 459 ID=77167 Provider=Zillion Name=Clash of Camelot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>68 464 ID=27063 Provider=Zillion Name=Cloud Quest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>69 472 ID=28679 Provider=Zillion Name=Coils of Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>70 476 ID=27185 Provider=Microgaming Name=ColossusFracpot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>71 479 ID=26831 Provider=Zillion Name=Contact cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>72 483 ID=27062 Provider=Zillion Name=Cops'n'Robbers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>73 491 ID=76942 Provider=Zillion Name=Count Jokula cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>74 493 ID=25830 Provider=Zillion Name=CoywolfCash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>75 495 ID=75318 Provider=Zillion Name=Crazy Cows cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>76 506 ID=29349 Provider=QuickSpin Name=Crown of Valor cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>77 510 ID=28849 Provider=QuickSpin Name=Crystal Prince cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>78 511 ID=27534 Provider=QuickSpin Name=Crystal Queen cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>79 513 ID=26822 Provider=Zillion Name=Crystal Sun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>80 526 ID=25727 Provider=Zillion Name=DawnofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>81 531 ID=76034 Provider=Zillion Name=Def Leppard Hysteria cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>82 532 ID=26339 Provider=Zillion Name=Demon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>83 534 ID=76305 Provider=Zillion Name=Derby Wheel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>84 551 ID=25289 Provider=QuickSpin Name=DiamondDuke cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>85 555 ID=29931 Provider=Zillion Name=Diamonds of the Realm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>86 557 ID=25044 Provider=Zillion Name=DiamondVortex cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>87 559 ID=26201 Provider=Amatic Name=DiaMuertos cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>88 562 ID=29350 Provider=QuickSpin Name=Dinosaur Rage cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>89 563 ID=76682 Provider=Zillion Name=DIO - Killing the Dragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>90 566 ID=27092 Provider=QuickSpin Name=Divine Dreams cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>91 568 ID=25990 Provider=Zillion Name=Divine Showdown cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>92 573 ID=26155 Provider=Zillion Name=Doom of Egypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>93 582 ID=75048 Provider=Zillion Name=Dr. Toonz cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>94 593 ID=27061 Provider=Zillion Name=Dragon Maiden cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>95 594 ID=27060 Provider=Zillion Name=Dragon Ship cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>96 602 ID=27530 Provider=QuickSpin Name=DragonShrine cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>97 614 ID=26845 Provider=QuickSpin Name=DurianDynamite cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>98 617 ID=27481 Provider=QuickSpin Name=Dwarfs Gone Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>99 623 ID=27059 Provider=Zillion Name=Easter Eggs cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>100 624 ID=25605 Provider=QuickSpin Name=Eastern Emeralds cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>101 625 ID=76689 Provider=QuickSpin Name=Eastern Emeralds Megaways cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>102 650 ID=27058 Provider=Zillion Name=EnchantedCrystals cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>103 651 ID=27057 Provider=Zillion Name=EnchantedMeadow cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>104 652 ID=27056 Provider=Zillion Name=Energoonz cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>105 656 ID=28458 Provider=Zillion Name=European BlackJack MH cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>106 661 ID=28455 Provider=Zillion Name=European Roulette Pro cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>107 667 ID=76095 Provider=Zillion Name=Eye of Atum cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>108 672 ID=27054 Provider=Zillion Name=EyeoftheKraken cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>109 673 ID=27523 Provider=QuickSpin Name=Fairy Gate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>110 676 ID=76036 Provider=Zillion Name=Fat Frankies cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>111 677 ID=28770 Provider=Zillion Name=Feline Fury cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>112 689 ID=27053 Provider=Zillion Name=Fire Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>113 690 ID=29488 Provider=Zillion Name=Fire Joker Freeze cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>114 693 ID=29469 Provider=Zillion Name=Fire Toad cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>115 696 ID=26383 Provider=Zillion Name=FireflyFrenzy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>116 706 ID=28912 Provider=Zillion Name=Flex Game cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>117 707 ID=76339 Provider=QuickSpin Name=Flip Royale cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>118 715 ID=76851 Provider=Zillion Name=Flying Pigs cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>119 724 ID=76577 Provider=Zillion Name=Forge of Fortunes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>120 725 ID=76146 Provider=Zillion Name=Forge of Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>121 733 ID=76607 Provider=Zillion Name=Fortune Rewind cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>122 735 ID=27052 Provider=Zillion Name=Fortune Teller cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>123 737 ID=25710 Provider=Zillion Name=FortunesofAliBaba cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>124 741 ID=29580 Provider=Zillion Name=Free Reelin' Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>125 743 ID=28628 Provider=Zillion Name=Frozen Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>126 746 ID=27051 Provider=Zillion Name=Fruit Bonanza cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>127 773 ID=27049 Provider=Zillion Name=FuErDai cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>128 776 ID=26511 Provider=Zillion Name=Game of Gladiators cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>129 777 ID=78449 Provider=Zillion Name=Game of Gladiators Uprising cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>130 781 ID=76590 Provider=Zillion Name=Gates of Troy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>131 784 ID=27050 Provider=Zillion Name=Gemix cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>132 785 ID=29756 Provider=Zillion Name=Gemix 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>133 789 ID=75172 Provider=QuickSpin Name=Genies Touch cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>134 790 ID=28858 Provider=QuickSpin Name=Ghost Glyph cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>135 791 ID=75107 Provider=Zillion Name=Ghost of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>136 792 ID=27034 Provider=Zillion Name=Gift Shop cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>137 793 ID=75883 Provider=Zillion Name=Gigantoonz cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>138 806 ID=76117 Provider=Microgaming Name=Gods Of Giza cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>139 813 ID=27047 Provider=Zillion Name=Gold King cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>140 814 ID=27531 Provider=QuickSpin Name=Gold Lab cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>141 824 ID=27046 Provider=Zillion Name=Gold Trophy 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>142 829 ID=27045 Provider=Zillion Name=Golden Caravan cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>143 831 ID=25981 Provider=Zillion Name=Golden Colts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>144 834 ID=29636 Provider=QuickSpin Name=Golden Glyph 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>145 835 ID=27048 Provider=Zillion Name=Golden Goal cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>146 837 ID=27044 Provider=Zillion Name=Golden Legend cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>147 838 ID=28618 Provider=Zillion Name=Golden Osiris cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>148 842 ID=27043 Provider=Zillion Name=Golden Ticket cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>149 843 ID=25528 Provider=Zillion Name=Golden Ticket 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>150 846 ID=25288 Provider=QuickSpin Name=GoldenGlyph cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>151 853 ID=25283 Provider=QuickSpin Name=GoldilocksandtheWildBears cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>152 854 ID=25178 Provider=Zillion Name=GoldVolcano cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>153 876 ID=27042 Provider=Zillion Name=GrimMuerto cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>154 878 ID=29747 Provider=QuickSpin Name=Guardian Of Athens cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>155 879 ID=27041 Provider=Zillion Name=Gunslinger:Reloaded cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>156 880 ID=26548 Provider=QuickSpin Name=HalloftheMountainKing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>157 882 ID=28851 Provider=QuickSpin Name=Hammer of Vulcan cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>158 883 ID=29534 Provider=Zillion Name=HammerFall cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>159 886 ID=27040 Provider=Zillion Name=Happy Halloween cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>160 898 ID=28749 Provider=Zillion Name=Helloween cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>161 902 ID=27468 Provider=QuickSpin Name=HiddenValley cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>162 905 ID=76113 Provider=QuickSpin Name=High Street Heist cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>163 917 ID=27039 Provider=Zillion Name=Holiday Season cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>164 920 ID=26205 Provider=Zillion Name=Honey Rush cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>165 921 ID=75790 Provider=Zillion Name=Hooligan Hustle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>166 927 ID=28914 Provider=Zillion Name=Hot Bingo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>167 966 ID=29784 Provider=Zillion Name=Hotel Yeti-Way cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>168 974 ID=27528 Provider=QuickSpin Name=HotSync cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>169 980 ID=27038 Provider=Zillion Name=House of Doom cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>170 981 ID=29277 Provider=Zillion Name=House of Doom 2: The Crypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>171 982 ID=29960 Provider=Zillion Name=Hugo Carts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>172 983 ID=28943 Provider=Zillion Name=Hugo's Adventure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>173 990 ID=28650 Provider=Zillion Name=Ice Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>174 992 ID=76256 Provider=Zillion Name=Idol of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>175 993 ID=27535 Provider=QuickSpin Name=Illuminous cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>176 994 ID=76597 Provider=Zillion Name=ImmorTails of Egypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>177 997 ID=27036 Provider=Zillion Name=Imperial Opera cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>178 1004 ID=26354 Provider=Zillion Name=Inferno Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>179 1005 ID=26568 Provider=Zillion Name=Inferno Star cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>180 1008 ID=77603 Provider=Zillion Name=Invading Vegas cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>181 1010 ID=27037 Provider=Zillion Name=Irish Gold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>182 1012 ID=27035 Provider=Zillion Name=Iron Girl cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>183 1020 ID=27136 Provider=QuickSpin Name=IvanandtheImmortalKing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>184 1030 ID=27033 Provider=Zillion Name=Jade Magician cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>185 1036 ID=27032 Provider=Zillion Name=Jewel Box cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>186 1053 ID=27485 Provider=QuickSpin Name=JokerStrike cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>187 1054 ID=27031 Provider=Zillion Name=Jolly Roger cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>188 1055 ID=25541 Provider=Zillion Name=Jolly Roger 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>189 1074 ID=76850 Provider=Zillion Name=Keno cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>190 1082 ID=27540 Provider=QuickSpin Name=KingColossus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>191 1085 ID=27562 Provider=Microgaming Name=KingofKaiju:RampageRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>192 1086 ID=76280 Provider=Zillion Name=King's Mask cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>193 1092 ID=75666 Provider=Zillion Name=Kiss Reels Of Rock cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>194 1104 ID=27030 Provider=Zillion Name=Lady of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>195 1113 ID=25878 Provider=Zillion Name=Legacy of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>196 1114 ID=27029 Provider=Zillion Name=Legacy of Egypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>197 1115 ID=78441 Provider=Zillion Name=Legacy of Inca cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>198 1118 ID=75271 Provider=Zillion Name=Legend of the Ice Dragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>199 1123 ID=78447 Provider=Zillion Name=Legion Gold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>200 1128 ID=27028 Provider=Zillion Name=LeprechaungoesEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>201 1129 ID=27027 Provider=Zillion Name=LeprechaungoestoHell cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>202 1130 ID=25744 Provider=Zillion Name=LeprechaunGoesWild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>203 1131 ID=27527 Provider=QuickSpin Name=LeprechaunHills cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>204 1132 ID=76574 Provider=Zillion Name=Leprechaun's Vault cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>205 1142 ID=28846 Provider=QuickSpin Name=Loco the Monkey cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>206 1146 ID=29158 Provider=Zillion Name=Lord Merlin and the Lady of the Lake cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>207 1147 ID=76151 Provider=Zillion Name=Lordi Reel Monsters cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>208 1157 ID=75889 Provider=Zillion Name=Love Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>209 1167 ID=27002 Provider=Zillion Name=Lucky Diamonds cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>210 1214 ID=76120 Provider=Microgaming Name=Machine Gun Unicorn cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>211 1219 ID=28740 Provider=Zillion Name=Madame Ink cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>212 1263 ID=26549 Provider=Zillion Name=Mahjong 88 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>213 1272 ID=27026 Provider=Zillion Name=Matsuri cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>214 1279 ID=27546 Provider=QuickSpin Name=Mayana cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>215 1283 ID=76571 Provider=Zillion Name=Mega Don cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>216 1286 ID=75343 Provider=Zillion Name=Merlin and the Ice Queen Morgana cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>217 1287 ID=76528 Provider=Zillion Name=Merlin's Grimoire cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>218 1288 ID=27025 Provider=Zillion Name=Mermaid's Diamond cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>219 1291 ID=27024 Provider=Zillion Name=Merry Xmas cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>220 1295 ID=29501 Provider=QuickSpin Name=Midas Coins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>221 1302 ID=27545 Provider=QuickSpin Name=MightyArthur cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>222 1305 ID=29182 Provider=Zillion Name=Miner Donkey Trouble cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>223 1307 ID=28457 Provider=Zillion Name=Mini Baccarat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>224 1309 ID=26345 Provider=Zillion Name=Mission Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>225 1315 ID=76849 Provider=Zillion Name=Money Wheel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>226 1323 ID=27022 Provider=Zillion Name=Moon Princess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>227 1324 ID=76106 Provider=Zillion Name=Moon Princess 100 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>228 1325 ID=75378 Provider=Zillion Name=Moon Princess: Christmas Kingdom cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>229 1328 ID=77206 Provider=Zillion Name=Mötley Crüe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>230 1329 ID=76446 Provider=Zillion Name=Mount M cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>231 1330 ID=75196 Provider=Zillion Name=Muerto En Mictlan cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>232 1333 ID=27023 Provider=Zillion Name=Multifruit81 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>233 1352 ID=27021 Provider=Zillion Name=Mystery Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>234 1353 ID=27020 Provider=Zillion Name=Mystery Joker 6000 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>235 1360 ID=27019 Provider=Zillion Name=Myth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>236 1361 ID=77080 Provider=Zillion Name=Naughty Nick's Book cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>237 1364 ID=25285 Provider=QuickSpin Name=Nero'sFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>238 1365 ID=28665 Provider=Zillion Name=New Year Riches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>239 1369 ID=27018 Provider=Zillion Name=Ninja Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>240 1375 ID=27560 Provider=QuickSpin Name=NorthernSky cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>241 1376 ID=76437 Provider=Zillion Name=NSYNC Pop cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>242 1378 ID=28801 Provider=Zillion Name=Octopus Treasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>243 1379 ID=29823 Provider=Zillion Name=Odin: Protector of Realms cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>244 1381 ID=76475 Provider=Microgaming Name=Oink Farm cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>245 1393 ID=29693 Provider=Zillion Name=Pack and Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>246 1401 ID=25755 Provider=QuickSpin Name=Panther'sReign cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>247 1402 ID=28913 Provider=Zillion Name=Park Bingo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>248 1411 ID=27017 Provider=Zillion Name=PearlLagoon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>249 1413 ID=27016 Provider=Zillion Name=PearlsofIndia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>250 1417 ID=26539 Provider=Zillion Name=Perfect Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>251 1422 ID=28451 Provider=Zillion Name=Phoenix Reborn cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>252 1423 ID=27529 Provider=QuickSpin Name=Phoenix Sun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>253 1424 ID=27015 Provider=Zillion Name=Photo Safari cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>254 1425 ID=27544 Provider=QuickSpin Name=PiedPiper cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>255 1427 ID=28684 Provider=Zillion Name=Piggy Bank Farm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>256 1430 ID=78143 Provider=Zillion Name=Pilgrim of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>257 1431 ID=27014 Provider=Zillion Name=Pimped cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>258 1443 ID=27483 Provider=QuickSpin Name=Pirate'sCharm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>259 1448 ID=27013 Provider=Zillion Name=PlanetFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>260 1453 ID=26028 Provider=QuickSpin Name=PolarPaws cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>261 1468 ID=76998 Provider=QuickSpin Name=Primal Spirits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>262 1469 ID=26534 Provider=QuickSpin Name=Prime Zone cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>263 1472 ID=29581 Provider=Zillion Name=Prism of Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>264 1473 ID=27012 Provider=Zillion Name=PrissyPrincess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>265 1478 ID=27009 Provider=Zillion Name=ProsperityPalace cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>266 1480 ID=76166 Provider=Zillion Name=Puebla Parade cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>267 1497 ID=26983 Provider=Zillion Name=Queen'sDayTilt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>268 1500 ID=28758 Provider=Zillion Name=Rabbit Hole Riches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>269 1501 ID=29526 Provider=Zillion Name=Rabbit Hole Riches - Court of Hearts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>270 1503 ID=27010 Provider=Zillion Name=RagetoRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>271 1505 ID=76093 Provider=Zillion Name=Raging Rex 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>272 1506 ID=27011 Provider=Zillion Name=RagingRex cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>273 1507 ID=76116 Provider=Microgaming Name=Ragnarok cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>274 1512 ID=76802 Provider=Zillion Name=Rainforest Magic Bingo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>275 1513 ID=26284 Provider=Zillion Name=RainforestMagic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>276 1514 ID=25227 Provider=Zillion Name=Rally4Riches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>277 1515 ID=27542 Provider=QuickSpin Name=Rapunzel's Tower cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>278 1517 ID=77040 Provider=QuickSpin Name=Raven Rising cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>279 1518 ID=27533 Provider=QuickSpin Name=Razortooth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>280 1519 ID=27008 Provider=Zillion Name=Reactoonz cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>281 1520 ID=28761 Provider=Zillion Name=Reactoonz 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>282 1544 ID=75259 Provider=QuickSpin Name=Reno 7's cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>283 1560 ID=29466 Provider=Zillion Name=Rich Wilde and the Amulet of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>284 1561 ID=75315 Provider=Zillion Name=Rich Wilde and the Wandering City cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>285 1562 ID=27007 Provider=Zillion Name=RichesofRA cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>286 1563 ID=25671 Provider=Zillion Name=RichesofRobin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>287 1564 ID=26427 Provider=Zillion Name=RichWilde&amp;theTomeMadness cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>288 1565 ID=25251 Provider=Zillion Name=RichWildeandTheShieldofAthena cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>289 1566 ID=25159 Provider=Zillion Name=RiddleReels:ACaseofRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>290 1567 ID=25431 Provider=Zillion Name=RingofOdin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>291 1570 ID=28597 Provider=Zillion Name=Rise of Athena cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>292 1571 ID=26395 Provider=Zillion Name=Rise of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>293 1572 ID=76259 Provider=Zillion Name=Rise of Gods Reckoning cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>294 1573 ID=26452 Provider=Zillion Name=Rise of Merlin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>295 1574 ID=27006 Provider=Zillion Name=Rise of Olympus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>296 1575 ID=77107 Provider=Zillion Name=Rise of Olympus 100 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>297 1586 ID=76118 Provider=Microgaming Name=Robyn cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>298 1587 ID=76332 Provider=Zillion Name=Rocco Gallo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>299 1598 ID=76459 Provider=Zillion Name=Rotiki cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>300 1613 ID=27005 Provider=Zillion Name=Royal Masquerade cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>301 1625 ID=26553 Provider=Zillion Name=Sabaton cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>302 1627 ID=76089 Provider=Zillion Name=Safari of Wealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>303 1629 ID=27004 Provider=Zillion Name=SailsofGold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>304 1630 ID=76176 Provider=QuickSpin Name=Sakura Fortune 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>305 1632 ID=27003 Provider=Zillion Name=Samba Carnival cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>306 1641 ID=25052 Provider=Zillion Name=Saxon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>307 1648 ID=77667 Provider=QuickSpin Name=Scatter Monsters cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>308 1657 ID=29573 Provider=Zillion Name=Scroll of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>309 1659 ID=27001 Provider=Zillion Name=Sea Hunter cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>310 1660 ID=27532 Provider=QuickSpin Name=Second Strike cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>311 1664 ID=76087 Provider=Zillion Name=Secret of Dead cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>312 1668 ID=27536 Provider=QuickSpin Name=Sevens High cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>313 1669 ID=29953 Provider=QuickSpin Name=Sevens High Ultra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>314 1676 ID=77579 Provider=Zillion Name=Shamrock Miner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>315 1679 ID=29401 Provider=Zillion Name=Shimmering Woods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>316 1691 ID=28456 Provider=Zillion Name=Single Deck BlackJack MH cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>317 1693 ID=75044 Provider=Zillion Name=Sisters of The Sun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>318 1706 ID=27000 Provider=Zillion Name=SizzlingSpins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>319 1708 ID=26025 Provider=QuickSpin Name=Skulls UP! cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>320 1713 ID=76618 Provider=QuickSpin Name=Slugger Time cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>321 1718 ID=75225 Provider=Zillion Name=Snakebite cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>322 1735 ID=26999 Provider=Zillion Name=Space Race cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>323 1738 ID=75200 Provider=Zillion Name=Sparky and Shortz cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>324 1742 ID=26998 Provider=Zillion Name=Speed Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>325 1746 ID=26996 Provider=Zillion Name=Spin Party cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>326 1748 ID=27556 Provider=QuickSpin Name=Spinions Beach Party cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>327 1749 ID=76615 Provider=QuickSpin Name=Spinions Game Day cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>328 1750 ID=75394 Provider=QuickSpin Name=Spinions X-mas Party cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>329 1763 ID=25883 Provider=Zillion Name=Star Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>330 1774 ID=29556 Provider=QuickSpin Name=Sticky Bandits 3: Most Wanted cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>331 1775 ID=76617 Provider=QuickSpin Name=Sticky Bandits Trail of Blood cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>332 1777 ID=25284 Provider=QuickSpin Name=StickyBandits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>333 1778 ID=26531 Provider=QuickSpin Name=StickyBandits:WildReturn cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>334 1779 ID=25657 Provider=Zillion Name=StickyJoker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>335 1781 ID=26997 Provider=Zillion Name=Street Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>336 1814 ID=26995 Provider=Zillion Name=Super Flip cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>337 1824 ID=76847 Provider=Zillion Name=Super Wheel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>338 1835 ID=26994 Provider=Zillion Name=Sweet 27 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>339 1836 ID=26993 Provider=Zillion Name=Sweet Alchemy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>340 1837 ID=76805 Provider=Zillion Name=Sweet Alchemy Bingo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>341 1846 ID=75822 Provider=Zillion Name=Tale Of Kyubiko cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>342 1847 ID=76083 Provider=Zillion Name=Tales of Asgard: Freya's Wedding cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>343 1848 ID=75256 Provider=Zillion Name=Tales of Asgard: Loki’s Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>344 1850 ID=26843 Provider=QuickSpin Name=TalesofDr.Dolittle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>345 1863 ID=25696 Provider=Zillion Name=Testament cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>346 1864 ID=25639 Provider=Zillion Name=That’sRich cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>347 1877 ID=29234 Provider=Zillion Name=The Faces of Freya cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>348 1879 ID=26848 Provider=QuickSpin Name=The Grand cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>349 1883 ID=29268 Provider=Zillion Name=The Green Knight cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>350 1887 ID=75290 Provider=Zillion Name=The Last Sundown cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>351 1890 ID=29295 Provider=Zillion Name=The Paying Piano Club cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>352 1896 ID=75124 Provider=Zillion Name=The Wild Class cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>353 1904 ID=26485 Provider=Zillion Name=TheSwordandTheGrail cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>354 1911 ID=29291 Provider=Zillion Name=Thunder Screech cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>355 1914 ID=26868 Provider=QuickSpin Name=TickettotheStars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>356 1919 ID=27179 Provider=QuickSpin Name=Tiger's Glory cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>357 1920 ID=29821 Provider=QuickSpin Name=Tiger's Glory Ultra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>358 1929 ID=28850 Provider=QuickSpin Name=Titan Thunder: Wrath of Hades cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>359 1935 ID=26992 Provider=Zillion Name=Tower Quest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>360 1954 ID=26991 Provider=Zillion Name=Troll Hunters cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>361 1955 ID=25220 Provider=Zillion Name=TrollHunters2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>362 1968 ID=25236 Provider=Zillion Name=TwistedSister cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>363 1976 ID=77163 Provider=Zillion Name=USA Flip cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>364 1982 ID=25287 Provider=QuickSpin Name=VampireSenpai cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>365 1997 ID=76733 Provider=Microgaming Name=Video Bingo - Circus cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>366 2007 ID=76797 Provider=Zillion Name=Viking Runecraft Bingo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>367 2008 ID=26990 Provider=Zillion Name=VikingRunecraft cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>368 2013 ID=75521 Provider=Microgaming Name=Voila cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>369 2015 ID=27553 Provider=QuickSpin Name=Volcano Riches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>370 2022 ID=76114 Provider=QuickSpin Name=Warp Wreckers Power Glyph cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>371 2036 ID=26989 Provider=Zillion Name=Wild Blood cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>372 2037 ID=25845 Provider=Zillion Name=Wild Blood 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>373 2041 ID=26982 Provider=Zillion Name=Wild Falls cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>374 2042 ID=77202 Provider=Zillion Name=Wild Falls 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>375 2045 ID=25917 Provider=Zillion Name=Wild Frames cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>376 2050 ID=75183 Provider=QuickSpin Name=Wild Harlequin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>377 2058 ID=29775 Provider=QuickSpin Name=Wild Luchador cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>378 2059 ID=26978 Provider=Zillion Name=Wild Melon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>379 2061 ID=26987 Provider=Zillion Name=Wild North cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>380 2067 ID=76295 Provider=Zillion Name=Wild Trigger cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>381 2079 ID=25756 Provider=QuickSpin Name=WildCauldron cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>382 2080 ID=25286 Provider=QuickSpin Name=WildChase cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>383 2081 ID=26295 Provider=QuickSpin Name=WildChase:TokyoGo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>384 2085 ID=25875 Provider=Zillion Name=WildhoundDerby cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>385 2087 ID=26041 Provider=Zillion Name=WildRails cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>386 2092 ID=26376 Provider=QuickSpin Name=WildTomeoftheWoods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>387 2095 ID=25166 Provider=Zillion Name=WinaBeest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>388 2097 ID=27526 Provider=QuickSpin Name=Wins of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>389 2099 ID=26986 Provider=Zillion Name=Wizard of Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>390 2113 ID=26985 Provider=Zillion Name=Xmas Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>391 2114 ID=26068 Provider=Zillion Name=Xmas Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>392 2122 ID=29845 Provider=Zillion Name=ZZ Top Roadside Riches cod=0 description=null ResponseObject=24</t>
   </si>
 </sst>
 </file>
@@ -317,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A392"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -761,6 +1676,1531 @@
         <v>86</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
